--- a/statistics_files/nekls_executive_board/2024/2024_10_next_statistics_for_executive_board.xlsx
+++ b/statistics_files/nekls_executive_board/2024/2024_10_next_statistics_for_executive_board.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\nekls_executive_board\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69A3FA1-5091-45EC-8F86-4798EE695CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5035725-ACD5-460C-92A6-B7BE4C259623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{173C74C7-6DED-436A-89F4-F7E38458C5AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{173C74C7-6DED-436A-89F4-F7E38458C5AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -725,7 +725,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:D1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,457 +762,799 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="5">
+        <v>60259</v>
+      </c>
+      <c r="C3" s="5">
+        <v>9241</v>
+      </c>
+      <c r="D3" s="5">
+        <v>9894</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="B4" s="7">
+        <v>36018</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3284</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4473</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="B5" s="5">
+        <v>94724</v>
+      </c>
+      <c r="C5" s="5">
+        <v>8964</v>
+      </c>
+      <c r="D5" s="5">
+        <v>8487</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="B6" s="7">
+        <v>1770</v>
+      </c>
+      <c r="C6" s="7">
+        <v>930</v>
+      </c>
+      <c r="D6" s="7">
+        <v>260</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="5">
+        <v>63763</v>
+      </c>
+      <c r="C7" s="5">
+        <v>10747</v>
+      </c>
+      <c r="D7" s="5">
+        <v>7884</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="7">
+        <v>7496</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1462</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1609</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="5">
+        <v>7549</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1605</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1046</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="B10" s="7">
+        <v>3713</v>
+      </c>
+      <c r="C10" s="7">
+        <v>545</v>
+      </c>
+      <c r="D10" s="7">
+        <v>299</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="5">
+        <v>1403</v>
+      </c>
+      <c r="C11" s="5">
+        <v>399</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="9">
+        <v>1237</v>
+      </c>
+      <c r="C13" s="9">
+        <v>266</v>
+      </c>
+      <c r="D13" s="9">
+        <v>380</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="B14" s="11">
+        <v>3607</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1364</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1349</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="9">
+        <v>6412</v>
+      </c>
+      <c r="C15" s="9">
+        <v>2261</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1257</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="B16" s="11">
+        <v>4529</v>
+      </c>
+      <c r="C16" s="11">
+        <v>2352</v>
+      </c>
+      <c r="D16" s="11">
+        <v>535</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="B17" s="5">
+        <v>3616</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1123</v>
+      </c>
+      <c r="D17" s="5">
+        <v>450</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="B18" s="7">
+        <v>23732</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3292</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4483</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="5">
+        <v>1876</v>
+      </c>
+      <c r="C19" s="5">
+        <v>883</v>
+      </c>
+      <c r="D19" s="5">
+        <v>459</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="B20" s="7">
+        <v>23821</v>
+      </c>
+      <c r="C20" s="7">
+        <v>3332</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3720</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="B21" s="5">
+        <v>461</v>
+      </c>
+      <c r="C21" s="5">
+        <v>575</v>
+      </c>
+      <c r="D21" s="5">
+        <v>129</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="B22" s="7">
+        <v>23595</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2657</v>
+      </c>
+      <c r="D22" s="7">
+        <v>4037</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="B23" s="5">
+        <v>1574</v>
+      </c>
+      <c r="C23" s="5">
+        <v>835</v>
+      </c>
+      <c r="D23" s="5">
+        <v>259</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="B24" s="7">
+        <v>26339</v>
+      </c>
+      <c r="C24" s="7">
+        <v>2686</v>
+      </c>
+      <c r="D24" s="7">
+        <v>4955</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="B25" s="5">
+        <v>104631</v>
+      </c>
+      <c r="C25" s="5">
+        <v>8885</v>
+      </c>
+      <c r="D25" s="5">
+        <v>11887</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="B26" s="7">
+        <v>8052</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3060</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1111</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="B28" s="7">
+        <v>7028</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1648</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1725</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="B29" s="5">
+        <v>3142</v>
+      </c>
+      <c r="C29" s="5">
+        <v>742</v>
+      </c>
+      <c r="D29" s="5">
+        <v>648</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="B30" s="7">
+        <v>19640</v>
+      </c>
+      <c r="C30" s="7">
+        <v>3396</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3866</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="B31" s="5">
+        <v>620</v>
+      </c>
+      <c r="C31" s="5">
+        <v>128</v>
+      </c>
+      <c r="D31" s="5">
+        <v>379</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="B32" s="7">
+        <v>3955</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2269</v>
+      </c>
+      <c r="D32" s="7">
+        <v>409</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="B33" s="5">
+        <v>18872</v>
+      </c>
+      <c r="C33" s="5">
+        <v>4474</v>
+      </c>
+      <c r="D33" s="5">
+        <v>3807</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="B34" s="7">
+        <v>15225</v>
+      </c>
+      <c r="C34" s="7">
+        <v>4354</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2774</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="B35" s="5">
+        <v>6770</v>
+      </c>
+      <c r="C35" s="5">
+        <v>829</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1347</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="B36" s="7">
+        <v>76098</v>
+      </c>
+      <c r="C36" s="7">
+        <v>8585</v>
+      </c>
+      <c r="D36" s="7">
+        <v>7286</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="B37" s="5">
+        <v>10775</v>
+      </c>
+      <c r="C37" s="5">
+        <v>3858</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1490</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="B38" s="7">
+        <v>36417</v>
+      </c>
+      <c r="C38" s="7">
+        <v>2610</v>
+      </c>
+      <c r="D38" s="7">
+        <v>3472</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="B39" s="5">
+        <v>1591</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1415</v>
+      </c>
+      <c r="D39" s="5">
+        <v>260</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
+      <c r="B40" s="7">
+        <v>1782</v>
+      </c>
+      <c r="C40" s="7">
+        <v>668</v>
+      </c>
+      <c r="D40" s="7">
+        <v>713</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
+      <c r="B41" s="13">
+        <v>3430</v>
+      </c>
+      <c r="C41" s="13">
+        <v>753</v>
+      </c>
+      <c r="D41" s="13">
+        <v>141</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
+      <c r="B42" s="15">
+        <v>13802</v>
+      </c>
+      <c r="C42" s="15">
+        <v>693</v>
+      </c>
+      <c r="D42" s="15">
+        <v>358</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
+      <c r="B43" s="13">
+        <v>364</v>
+      </c>
+      <c r="C43" s="13">
+        <v>265</v>
+      </c>
+      <c r="D43" s="13">
+        <v>58</v>
+      </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
+      <c r="B44" s="15">
+        <v>1060</v>
+      </c>
+      <c r="C44" s="15">
+        <v>214</v>
+      </c>
+      <c r="D44" s="15">
+        <v>70</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
+      <c r="B45" s="13">
+        <v>0</v>
+      </c>
+      <c r="C45" s="13">
+        <v>0</v>
+      </c>
+      <c r="D45" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
+      <c r="B46" s="7">
+        <v>4428</v>
+      </c>
+      <c r="C46" s="7">
+        <v>1408</v>
+      </c>
+      <c r="D46" s="7">
+        <v>549</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="B47" s="5">
+        <v>18728</v>
+      </c>
+      <c r="C47" s="5">
+        <v>4551</v>
+      </c>
+      <c r="D47" s="5">
+        <v>3571</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
+      <c r="B48" s="7">
+        <v>45430</v>
+      </c>
+      <c r="C48" s="7">
+        <v>4453</v>
+      </c>
+      <c r="D48" s="7">
+        <v>6708</v>
+      </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="B49" s="5">
+        <v>20982</v>
+      </c>
+      <c r="C49" s="5">
+        <v>4498</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1923</v>
+      </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
+      <c r="B50" s="7">
+        <v>16401</v>
+      </c>
+      <c r="C50" s="7">
+        <v>2040</v>
+      </c>
+      <c r="D50" s="7">
+        <v>3516</v>
+      </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
+      <c r="B51" s="5">
+        <v>44303</v>
+      </c>
+      <c r="C51" s="5">
+        <v>4171</v>
+      </c>
+      <c r="D51" s="5">
+        <v>7019</v>
+      </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
+      <c r="B52" s="7">
+        <v>6976</v>
+      </c>
+      <c r="C52" s="7">
+        <v>1309</v>
+      </c>
+      <c r="D52" s="7">
+        <v>1682</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
+      <c r="B53" s="5">
+        <v>14930</v>
+      </c>
+      <c r="C53" s="5">
+        <v>2964</v>
+      </c>
+      <c r="D53" s="5">
+        <v>2463</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
+      <c r="B54" s="7">
+        <v>2941</v>
+      </c>
+      <c r="C54" s="7">
+        <v>1818</v>
+      </c>
+      <c r="D54" s="7">
+        <v>1160</v>
+      </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+      <c r="B55" s="5">
+        <v>2928</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1814</v>
+      </c>
+      <c r="D55" s="5">
+        <v>193</v>
+      </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
+      <c r="B56" s="7">
+        <v>6977</v>
+      </c>
+      <c r="C56" s="7">
+        <v>1499</v>
+      </c>
+      <c r="D56" s="7">
+        <v>2663</v>
+      </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
+      <c r="B57" s="17">
+        <v>15785</v>
+      </c>
+      <c r="C57" s="17">
+        <v>6243</v>
+      </c>
+      <c r="D57" s="17">
+        <v>3521</v>
+      </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
+      <c r="B58" s="19">
+        <v>18656</v>
+      </c>
+      <c r="C58" s="19">
+        <v>1925</v>
+      </c>
+      <c r="D58" s="19">
+        <v>627</v>
+      </c>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
+      <c r="B59" s="21">
+        <v>915772</v>
+      </c>
+      <c r="C59" s="21">
+        <v>138174</v>
+      </c>
+      <c r="D59" s="21">
+        <v>129216</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
